--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_26 8.string(3).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_26 8.string(3).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,14 +15,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +61,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +151,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +186,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +362,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>